--- a/Asset Allocation/backtest_wenjian_weight.xlsx
+++ b/Asset Allocation/backtest_wenjian_weight.xlsx
@@ -426,22 +426,22 @@
         <v>39836</v>
       </c>
       <c r="B2">
-        <v>0.9629638746952164</v>
+        <v>0.77126990350754</v>
       </c>
       <c r="C2">
-        <v>0.004427730223519642</v>
+        <v>0.0273450622477679</v>
       </c>
       <c r="D2">
-        <v>1.263445361658145e-18</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>3.43997020538916e-17</v>
       </c>
       <c r="F2">
-        <v>0.01359248970649733</v>
+        <v>0.0839453772719848</v>
       </c>
       <c r="G2">
-        <v>0.01901590537476665</v>
+        <v>0.117439656972707</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -449,22 +449,22 @@
         <v>39871</v>
       </c>
       <c r="B3">
-        <v>0.4860843433099423</v>
+        <v>0.390897164982854</v>
       </c>
       <c r="C3">
-        <v>0.008853839610866894</v>
+        <v>0.0694167026727047</v>
       </c>
       <c r="D3">
-        <v>5.269989738164884e-19</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.003709732044320379</v>
+        <v>0.0290853888917652</v>
       </c>
       <c r="F3">
-        <v>9.004789763756522e-19</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0152677417249281</v>
+        <v>0.119703578469822</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -472,22 +472,22 @@
         <v>39903</v>
       </c>
       <c r="B4">
-        <v>0.4859539166590512</v>
+        <v>0.409336308523726</v>
       </c>
       <c r="C4">
-        <v>0.008973510177794766</v>
+        <v>0.0579215957838642</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6.13251853812113e-19</v>
       </c>
       <c r="E4">
-        <v>0.001853927497206678</v>
+        <v>0.0119666030076406</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3.38474365722818e-18</v>
       </c>
       <c r="G4">
-        <v>0.01541080150968953</v>
+        <v>0.0994725811534024</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -495,22 +495,22 @@
         <v>39933</v>
       </c>
       <c r="B5">
-        <v>0.9696352733555756</v>
+        <v>0.797502668788641</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.505740282568281e-05</v>
+        <v>0.000633921947855654</v>
       </c>
       <c r="E5">
-        <v>0.003393520589784725</v>
+        <v>0.0226308265460979</v>
       </c>
       <c r="F5">
-        <v>0.004764724164003433</v>
+        <v>0.0317751560691982</v>
       </c>
       <c r="G5">
-        <v>0.01395317973402237</v>
+        <v>0.0930514440329112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -518,22 +518,22 @@
         <v>39960</v>
       </c>
       <c r="B6">
-        <v>0.9668602192441299</v>
+        <v>0.844337031241412</v>
       </c>
       <c r="C6">
-        <v>0.009691468423399335</v>
+        <v>0.0455224117889095</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.002009003763121142</v>
+        <v>0.00943661901691842</v>
       </c>
       <c r="F6">
-        <v>0.001108869580936271</v>
+        <v>0.00520854171713264</v>
       </c>
       <c r="G6">
-        <v>0.01721256564435597</v>
+        <v>0.0808502355015765</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -541,22 +541,22 @@
         <v>39994</v>
       </c>
       <c r="B7">
-        <v>0.959651000373012</v>
+        <v>0.840612654824773</v>
       </c>
       <c r="C7">
-        <v>0.01065691073314763</v>
+        <v>0.0420971210332442</v>
       </c>
       <c r="D7">
-        <v>1.320827779803118e-17</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.00386180232837397</v>
+        <v>0.0152549613191507</v>
       </c>
       <c r="F7">
-        <v>0.0008663937005196077</v>
+        <v>0.00342244359160237</v>
       </c>
       <c r="G7">
-        <v>0.02023569683605321</v>
+        <v>0.0799354143204767</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,22 +564,22 @@
         <v>40025</v>
       </c>
       <c r="B8">
-        <v>0.9625658807270263</v>
+        <v>0.815513081582045</v>
       </c>
       <c r="C8">
-        <v>0.01036140356455651</v>
+        <v>0.051064200849471</v>
       </c>
       <c r="D8">
-        <v>1.50001187110784e-17</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0027464018515179</v>
+        <v>0.0135351176633788</v>
       </c>
       <c r="F8">
-        <v>0.001828026463637808</v>
+        <v>0.00900908033214097</v>
       </c>
       <c r="G8">
-        <v>0.01792385907810573</v>
+        <v>0.0883343215774447</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,22 +587,22 @@
         <v>40056</v>
       </c>
       <c r="B9">
-        <v>0.4840205188641649</v>
+        <v>0.41761086415781</v>
       </c>
       <c r="C9">
-        <v>0.002032635759102289</v>
+        <v>0.0104801340296857</v>
       </c>
       <c r="D9">
-        <v>2.651201537142952e-18</v>
+        <v>8.8929989132229e-18</v>
       </c>
       <c r="E9">
-        <v>0.003823945822552749</v>
+        <v>0.019716008395579</v>
       </c>
       <c r="F9">
-        <v>0.00307982771278635</v>
+        <v>0.0158793861532326</v>
       </c>
       <c r="G9">
-        <v>0.01611877944188984</v>
+        <v>0.0831073485570708</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,7 +610,7 @@
         <v>40086</v>
       </c>
       <c r="B10">
-        <v>0.9657724209391221</v>
+        <v>0.848243019568881</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.004974597997034212</v>
+        <v>0.0220561898645781</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.44030192103964e-18</v>
       </c>
       <c r="G10">
-        <v>0.01831504014619335</v>
+        <v>0.0812045502062014</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -633,22 +633,22 @@
         <v>40116</v>
       </c>
       <c r="B11">
-        <v>0.9669109792636956</v>
+        <v>0.834175824121603</v>
       </c>
       <c r="C11">
-        <v>0.002872498106495109</v>
+        <v>0.014395398416566</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1.11686323353604e-17</v>
       </c>
       <c r="E11">
-        <v>0.009387451112107943</v>
+        <v>0.0470448009249923</v>
       </c>
       <c r="F11">
-        <v>0.0008017805101075461</v>
+        <v>0.00401808704089716</v>
       </c>
       <c r="G11">
-        <v>0.01635301239099113</v>
+        <v>0.0819524040384788</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -656,22 +656,22 @@
         <v>40147</v>
       </c>
       <c r="B12">
-        <v>0.9677066732312669</v>
+        <v>0.827921335459069</v>
       </c>
       <c r="C12">
-        <v>0.004598054277339405</v>
+        <v>0.0245012551661362</v>
       </c>
       <c r="D12">
-        <v>4.177451614928062e-19</v>
+        <v>5.6920614055489e-19</v>
       </c>
       <c r="E12">
-        <v>0.01045780784412672</v>
+        <v>0.0557256182811675</v>
       </c>
       <c r="F12">
-        <v>0.001348854548973636</v>
+        <v>0.00718752480432046</v>
       </c>
       <c r="G12">
-        <v>0.0145397555493197</v>
+        <v>0.0774767414849867</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,22 +679,22 @@
         <v>40178</v>
       </c>
       <c r="B13">
-        <v>0.963578550733055</v>
+        <v>0.806205524846676</v>
       </c>
       <c r="C13">
-        <v>0.005378791379889983</v>
+        <v>0.0286199496009304</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.62901376415947e-17</v>
       </c>
       <c r="E13">
-        <v>0.008236340813875798</v>
+        <v>0.043824651317443</v>
       </c>
       <c r="F13">
-        <v>0.00903703760220077</v>
+        <v>0.0480850722893706</v>
       </c>
       <c r="G13">
-        <v>0.01376927947097849</v>
+        <v>0.0732648019455797</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,22 +702,22 @@
         <v>40207</v>
       </c>
       <c r="B14">
-        <v>0.9615539334764844</v>
+        <v>0.816590626530464</v>
       </c>
       <c r="C14">
-        <v>0.004502787146673271</v>
+        <v>0.021480828789716</v>
       </c>
       <c r="D14">
-        <v>8.238509915351281e-20</v>
+        <v>3.98444298388423e-18</v>
       </c>
       <c r="E14">
-        <v>0.009677830187114937</v>
+        <v>0.0461686961987199</v>
       </c>
       <c r="F14">
-        <v>0.008791576940690908</v>
+        <v>0.0419407701878949</v>
       </c>
       <c r="G14">
-        <v>0.01547387224903649</v>
+        <v>0.0738190782932052</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -725,22 +725,22 @@
         <v>40235</v>
       </c>
       <c r="B15">
-        <v>0.9602731597967786</v>
+        <v>0.821311274817322</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.004468886978600217</v>
+        <v>0.0201007611895836</v>
       </c>
       <c r="E15">
-        <v>0.00571766354664976</v>
+        <v>0.0257176762597602</v>
       </c>
       <c r="F15">
-        <v>0.007635597694802264</v>
+        <v>0.034344417175106</v>
       </c>
       <c r="G15">
-        <v>0.01618702843651932</v>
+        <v>0.072808194298468</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -748,22 +748,22 @@
         <v>40268</v>
       </c>
       <c r="B16">
-        <v>0.9531947863305559</v>
+        <v>0.811795198858046</v>
       </c>
       <c r="C16">
-        <v>0.001199270946827459</v>
+        <v>0.00482229520829545</v>
       </c>
       <c r="D16">
-        <v>0.004122124739632975</v>
+        <v>0.0165751539230697</v>
       </c>
       <c r="E16">
-        <v>0.01308283673255975</v>
+        <v>0.0526063755612745</v>
       </c>
       <c r="F16">
-        <v>0.009388001066396553</v>
+        <v>0.0377493614811331</v>
       </c>
       <c r="G16">
-        <v>0.01781370923719992</v>
+        <v>0.0716293197598864</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -771,22 +771,22 @@
         <v>40298</v>
       </c>
       <c r="B17">
-        <v>0.9485447084264399</v>
+        <v>0.806587674848126</v>
       </c>
       <c r="C17">
-        <v>0.002609992240200898</v>
+        <v>0.00981054908414226</v>
       </c>
       <c r="D17">
-        <v>0.004885773985490153</v>
+        <v>0.0183648537823319</v>
       </c>
       <c r="E17">
-        <v>0.01317784095575527</v>
+        <v>0.0495334252605801</v>
       </c>
       <c r="F17">
-        <v>0.01160977031248479</v>
+        <v>0.043639295562538</v>
       </c>
       <c r="G17">
-        <v>0.01917191407962896</v>
+        <v>0.0720642014622815</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,22 +794,22 @@
         <v>40329</v>
       </c>
       <c r="B18">
-        <v>0.9433716028138379</v>
+        <v>0.763843535641307</v>
       </c>
       <c r="C18">
-        <v>0.004824099966816672</v>
+        <v>0.0201178638880077</v>
       </c>
       <c r="D18">
-        <v>1.377096683906975e-18</v>
+        <v>5.23466361403158e-19</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02353841119394207</v>
+        <v>0.0981618453719584</v>
       </c>
       <c r="G18">
-        <v>0.02344178605858661</v>
+        <v>0.0977588912107194</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,22 +817,22 @@
         <v>40359</v>
       </c>
       <c r="B19">
-        <v>0.938445276300292</v>
+        <v>0.822676560197515</v>
       </c>
       <c r="C19">
-        <v>0.001863924293505527</v>
+        <v>0.00536949006807897</v>
       </c>
       <c r="D19">
-        <v>0.002440483464574792</v>
+        <v>0.00703040916293867</v>
       </c>
       <c r="E19">
-        <v>0.01397597147562173</v>
+        <v>0.0402612044746944</v>
       </c>
       <c r="F19">
-        <v>0.00610885886935185</v>
+        <v>0.0175980621760843</v>
       </c>
       <c r="G19">
-        <v>0.02675221896922201</v>
+        <v>0.0770663125135867</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,22 +840,22 @@
         <v>40389</v>
       </c>
       <c r="B20">
-        <v>0.9365219752491827</v>
+        <v>0.772020693106169</v>
       </c>
       <c r="C20">
-        <v>0.006612029442653936</v>
+        <v>0.0237468934868271</v>
       </c>
       <c r="D20">
-        <v>1.443376725417608e-18</v>
+        <v>1.77749863981315e-18</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.0114941034075191</v>
+        <v>0.0412807067899409</v>
       </c>
       <c r="G20">
-        <v>0.02726575905047129</v>
+        <v>0.0979241063402951</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -863,22 +863,22 @@
         <v>40421</v>
       </c>
       <c r="B21">
-        <v>0.9328825779993917</v>
+        <v>0.789259738555572</v>
       </c>
       <c r="C21">
-        <v>0.01176208019369017</v>
+        <v>0.0369314519953449</v>
       </c>
       <c r="D21">
-        <v>1.337367532278679e-18</v>
+        <v>2.1324054447127e-19</v>
       </c>
       <c r="E21">
-        <v>4.379180388780462e-18</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.0235026584849642</v>
+        <v>0.0737953908490368</v>
       </c>
       <c r="G21">
-        <v>0.03185268332195394</v>
+        <v>0.100013418600047</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -886,22 +886,22 @@
         <v>40451</v>
       </c>
       <c r="B22">
-        <v>0.9286307353153126</v>
+        <v>0.767924465031932</v>
       </c>
       <c r="C22">
-        <v>0.01480894778455412</v>
+        <v>0.0481551054321828</v>
       </c>
       <c r="D22">
-        <v>6.165020940386758e-18</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1.008564083809442e-17</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.02219790794941594</v>
+        <v>0.0721822117176644</v>
       </c>
       <c r="G22">
-        <v>0.03436240895071734</v>
+        <v>0.111738217818221</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -909,22 +909,22 @@
         <v>40480</v>
       </c>
       <c r="B23">
-        <v>0.9259065968933952</v>
+        <v>0.767893673890589</v>
       </c>
       <c r="C23">
-        <v>0.01351244721251494</v>
+        <v>0.042329335087893</v>
       </c>
       <c r="D23">
-        <v>9.002005534391255e-18</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>7.499170158251086e-18</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0.0286736180547149</v>
+        <v>0.0898234918942204</v>
       </c>
       <c r="G23">
-        <v>0.03190733783937501</v>
+        <v>0.0999534991272974</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -932,22 +932,22 @@
         <v>40512</v>
       </c>
       <c r="B24">
-        <v>0.4654168354207781</v>
+        <v>0.397838800156092</v>
       </c>
       <c r="C24">
-        <v>0.007234983105546908</v>
+        <v>0.021372669480771</v>
       </c>
       <c r="D24">
-        <v>0.006851781886229287</v>
+        <v>0.0202406653885144</v>
       </c>
       <c r="E24">
-        <v>5.480721490195322e-17</v>
+        <v>8.84926024940906e-17</v>
       </c>
       <c r="F24">
-        <v>0.02499415797177824</v>
+        <v>0.0738345729121394</v>
       </c>
       <c r="G24">
-        <v>0.03008540619488931</v>
+        <v>0.0888744919063919</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -955,22 +955,22 @@
         <v>40543</v>
       </c>
       <c r="B25">
-        <v>0.4691658288020887</v>
+        <v>0.416091076837308</v>
       </c>
       <c r="C25">
-        <v>0.01035284627386936</v>
+        <v>0.0281731642539692</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.008615355703915853</v>
+        <v>0.0234449365599733</v>
       </c>
       <c r="F25">
-        <v>0.01182242149479624</v>
+        <v>0.0321723161175709</v>
       </c>
       <c r="G25">
-        <v>0.03087771892324107</v>
+        <v>0.084027429393871</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -978,10 +978,10 @@
         <v>40574</v>
       </c>
       <c r="B26">
-        <v>0.9338161527818868</v>
+        <v>0.813246539204005</v>
       </c>
       <c r="C26">
-        <v>0.0111290193146424</v>
+        <v>0.0314031735914541</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.02441456117059235</v>
+        <v>0.0688914894659959</v>
       </c>
       <c r="G26">
-        <v>0.03064026673287842</v>
+        <v>0.0864587977385448</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1001,22 +1001,22 @@
         <v>40602</v>
       </c>
       <c r="B27">
-        <v>0.9357030049865306</v>
+        <v>0.816045105777206</v>
       </c>
       <c r="C27">
-        <v>0.005378273469573309</v>
+        <v>0.0153873400153806</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>3.50713991810643e-18</v>
       </c>
       <c r="E27">
-        <v>7.241921976672391e-18</v>
+        <v>2.76776485844815e-17</v>
       </c>
       <c r="F27">
-        <v>0.02163193069640804</v>
+        <v>0.0618893542893305</v>
       </c>
       <c r="G27">
-        <v>0.03190851737791472</v>
+        <v>0.0912908599027016</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1024,22 +1024,22 @@
         <v>40633</v>
       </c>
       <c r="B28">
-        <v>0.935044714591444</v>
+        <v>0.816772142460079</v>
       </c>
       <c r="C28">
-        <v>0.004725764478886682</v>
+        <v>0.0133305813794206</v>
       </c>
       <c r="D28">
-        <v>0.002786985429234343</v>
+        <v>0.00786161381107446</v>
       </c>
       <c r="E28">
-        <v>5.05619848237039e-17</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0.01952362616271836</v>
+        <v>0.05507284074053</v>
       </c>
       <c r="G28">
-        <v>0.0304061594295955</v>
+        <v>0.0857706264184012</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1047,22 +1047,22 @@
         <v>40662</v>
       </c>
       <c r="B29">
-        <v>0.9291368222382383</v>
+        <v>0.8255092825362</v>
       </c>
       <c r="C29">
-        <v>0.006038259022208659</v>
+        <v>0.0148683729635667</v>
       </c>
       <c r="D29">
-        <v>7.949659794510798e-19</v>
+        <v>1.54075293105557e-18</v>
       </c>
       <c r="E29">
-        <v>1.26733607161128e-17</v>
+        <v>2.2849560785132e-17</v>
       </c>
       <c r="F29">
-        <v>0.02402207772805305</v>
+        <v>0.059151024493714</v>
       </c>
       <c r="G29">
-        <v>0.03476458198929131</v>
+        <v>0.0856029470429528</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1070,22 +1070,22 @@
         <v>40694</v>
       </c>
       <c r="B30">
-        <v>0.9233628564520179</v>
+        <v>0.825087290419099</v>
       </c>
       <c r="C30">
-        <v>6.620839986259962e-19</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.157904750960262e-19</v>
+        <v>3.06625926906057e-19</v>
       </c>
       <c r="E30">
-        <v>0.01745570210441131</v>
+        <v>0.039840005221758</v>
       </c>
       <c r="F30">
-        <v>0.02513119858381372</v>
+        <v>0.0573581663033764</v>
       </c>
       <c r="G30">
-        <v>0.03405024285975707</v>
+        <v>0.0777145380557665</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,22 +1093,22 @@
         <v>40724</v>
       </c>
       <c r="B31">
-        <v>0.9164173197693029</v>
+        <v>0.815910949228113</v>
       </c>
       <c r="C31">
-        <v>0.007628836416839375</v>
+        <v>0.01680234758982</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>6.34851193967098e-19</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>5.82335151237331e-18</v>
       </c>
       <c r="F31">
-        <v>0.03037924076619311</v>
+        <v>0.0669096225980832</v>
       </c>
       <c r="G31">
-        <v>0.03794576663082526</v>
+        <v>0.0835747329941643</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1116,22 +1116,22 @@
         <v>40753</v>
       </c>
       <c r="B32">
-        <v>0.9190799878931294</v>
+        <v>0.849518558201654</v>
       </c>
       <c r="C32">
-        <v>0.002060731488816945</v>
+        <v>0.00383220209497188</v>
       </c>
       <c r="D32">
-        <v>0.005007910410219973</v>
+        <v>0.00931287040723432</v>
       </c>
       <c r="E32">
-        <v>0.01738137660742011</v>
+        <v>0.0323229643376906</v>
       </c>
       <c r="F32">
-        <v>0.01783157077954875</v>
+        <v>0.033160158263185</v>
       </c>
       <c r="G32">
-        <v>0.03156978092182788</v>
+        <v>0.0587081741930575</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,22 +1139,22 @@
         <v>40786</v>
       </c>
       <c r="B33">
-        <v>0.4617021651344794</v>
+        <v>0.42169238281317</v>
       </c>
       <c r="C33">
-        <v>0.004924307379841313</v>
+        <v>0.0100687355436063</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1.13015370987405e-18</v>
       </c>
       <c r="E33">
-        <v>0.01424040087054258</v>
+        <v>0.0291173603266905</v>
       </c>
       <c r="F33">
-        <v>0.01916246474675008</v>
+        <v>0.0391815089567315</v>
       </c>
       <c r="G33">
-        <v>0.03334418935406593</v>
+        <v>0.0681788940030259</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1162,22 +1162,22 @@
         <v>40816</v>
       </c>
       <c r="B34">
-        <v>0.4609896565103477</v>
+        <v>0.419442875909133</v>
       </c>
       <c r="C34">
-        <v>0.008178473710458082</v>
+        <v>0.0168887087256252</v>
       </c>
       <c r="D34">
-        <v>9.160392246576589e-18</v>
+        <v>2.52721279538385e-17</v>
       </c>
       <c r="E34">
-        <v>0.005873887836232693</v>
+        <v>0.012129693131516</v>
       </c>
       <c r="F34">
-        <v>0.01044652098737274</v>
+        <v>0.0215722710811175</v>
       </c>
       <c r="G34">
-        <v>0.02902292191117743</v>
+        <v>0.0599329023052173</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1185,10 +1185,10 @@
         <v>40847</v>
       </c>
       <c r="B35">
-        <v>0.9216659786650075</v>
+        <v>0.838970162999349</v>
       </c>
       <c r="C35">
-        <v>0.01096237558373173</v>
+        <v>0.0225351581102094</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.009437832073013956</v>
+        <v>0.0194011813706066</v>
       </c>
       <c r="G35">
-        <v>0.01876680301075053</v>
+        <v>0.0385785790195097</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1208,22 +1208,22 @@
         <v>40877</v>
       </c>
       <c r="B36">
-        <v>0.9082731101093539</v>
+        <v>0.853399984941743</v>
       </c>
       <c r="C36">
-        <v>0.004007176895500576</v>
+        <v>0.00640436150578928</v>
       </c>
       <c r="D36">
-        <v>0.008278426454609484</v>
+        <v>0.0132307707841914</v>
       </c>
       <c r="E36">
-        <v>2.104302465472773e-18</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.02898993105897259</v>
+        <v>0.0463323723382002</v>
       </c>
       <c r="G36">
-        <v>0.03816575213145344</v>
+        <v>0.0609973781400955</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1231,22 +1231,22 @@
         <v>40907</v>
       </c>
       <c r="B37">
-        <v>0.8982909941168008</v>
+        <v>0.815661729477</v>
       </c>
       <c r="C37">
-        <v>0.00669016664521103</v>
+        <v>0.0121253152230753</v>
       </c>
       <c r="D37">
-        <v>0.005209144465123174</v>
+        <v>0.00944109762225036</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3.75860282432255e-17</v>
       </c>
       <c r="F37">
-        <v>0.03984661219786886</v>
+        <v>0.0722183399644298</v>
       </c>
       <c r="G37">
-        <v>0.03806377146466195</v>
+        <v>0.0689871048679189</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,22 +1254,22 @@
         <v>40939</v>
       </c>
       <c r="B38">
-        <v>0.8755535160214318</v>
+        <v>0.82001177289296</v>
       </c>
       <c r="C38">
-        <v>0.01627290791000668</v>
+        <v>0.0235356737226139</v>
       </c>
       <c r="D38">
-        <v>1.225018592489767e-17</v>
+        <v>1.24675838297545e-17</v>
       </c>
       <c r="E38">
-        <v>0.00652246473442828</v>
+        <v>0.00943350788343921</v>
       </c>
       <c r="F38">
-        <v>0.03015095530929143</v>
+        <v>0.0436076373209995</v>
       </c>
       <c r="G38">
-        <v>0.02435239169020337</v>
+        <v>0.0352211132869671</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1277,22 +1277,22 @@
         <v>40968</v>
       </c>
       <c r="B39">
-        <v>0.8662876720866204</v>
+        <v>0.82123720429143</v>
       </c>
       <c r="C39">
-        <v>0.03413698552238387</v>
+        <v>0.0456384465739367</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>3.81503639443337e-17</v>
       </c>
       <c r="E39">
-        <v>0.00840798240669732</v>
+        <v>0.0112408063573703</v>
       </c>
       <c r="F39">
-        <v>0.03489523810896236</v>
+        <v>0.046652171829557</v>
       </c>
       <c r="G39">
-        <v>0.04786413946863876</v>
+        <v>0.0639905645903351</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1300,22 +1300,22 @@
         <v>40998</v>
       </c>
       <c r="B40">
-        <v>0.864512343943356</v>
+        <v>0.814946705250865</v>
       </c>
       <c r="C40">
-        <v>0.0261811085273644</v>
+        <v>0.0357589792703458</v>
       </c>
       <c r="D40">
-        <v>0.01039335581422455</v>
+        <v>0.0141955725012485</v>
       </c>
       <c r="E40">
-        <v>1.599034059520599e-17</v>
+        <v>3.51709255523667e-18</v>
       </c>
       <c r="F40">
-        <v>0.05372516769775559</v>
+        <v>0.0733795213630294</v>
       </c>
       <c r="G40">
-        <v>0.04518802401729947</v>
+        <v>0.0617192216145114</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1323,22 +1323,22 @@
         <v>41026</v>
       </c>
       <c r="B41">
-        <v>0.8633851892427822</v>
+        <v>0.854146725460932</v>
       </c>
       <c r="C41">
-        <v>1.276550358820016e-18</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0.01130543372767008</v>
+        <v>0.0120699543234535</v>
       </c>
       <c r="E41">
-        <v>0.0124437492882454</v>
+        <v>0.0132852473841518</v>
       </c>
       <c r="F41">
-        <v>0.03440982678164772</v>
+        <v>0.0367367628816108</v>
       </c>
       <c r="G41">
-        <v>0.06601205167140919</v>
+        <v>0.0704760625657003</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1346,22 +1346,22 @@
         <v>41060</v>
       </c>
       <c r="B42">
-        <v>0.8614063143846177</v>
+        <v>0.835842987157437</v>
       </c>
       <c r="C42">
-        <v>0.03280514793636056</v>
+        <v>0.0388559919384294</v>
       </c>
       <c r="D42">
-        <v>1.074838687203877e-18</v>
+        <v>3.64037820070953e-17</v>
       </c>
       <c r="E42">
-        <v>0.01103902248218472</v>
+        <v>0.0130751473938216</v>
       </c>
       <c r="F42">
-        <v>0.0348990230318544</v>
+        <v>0.0413360796965568</v>
       </c>
       <c r="G42">
-        <v>0.0488114696827979</v>
+        <v>0.057814646419934</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1369,22 +1369,22 @@
         <v>41089</v>
       </c>
       <c r="B43">
-        <v>0.8498758143778301</v>
+        <v>0.852574339873426</v>
       </c>
       <c r="C43">
-        <v>0.03536296125730937</v>
+        <v>0.0347273020256674</v>
       </c>
       <c r="D43">
-        <v>1.283628010410522e-17</v>
+        <v>6.51707149617459e-18</v>
       </c>
       <c r="E43">
-        <v>0.01119662913685086</v>
+        <v>0.0109953663308302</v>
       </c>
       <c r="F43">
-        <v>0.03952259261061062</v>
+        <v>0.0388121637252835</v>
       </c>
       <c r="G43">
-        <v>0.02642268674027409</v>
+        <v>0.0259477308569811</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1392,22 +1392,22 @@
         <v>41121</v>
       </c>
       <c r="B44">
-        <v>0.8449560639359434</v>
+        <v>0.837647004026136</v>
       </c>
       <c r="C44">
-        <v>2.878712968219678e-17</v>
+        <v>3.37474866845058e-17</v>
       </c>
       <c r="D44">
-        <v>0.001606989142415194</v>
+        <v>0.00168274548393669</v>
       </c>
       <c r="E44">
-        <v>0.02681756493852105</v>
+        <v>0.0280817950767149</v>
       </c>
       <c r="F44">
-        <v>0.04835382696492412</v>
+        <v>0.050633315921633</v>
       </c>
       <c r="G44">
-        <v>0.02572399503983762</v>
+        <v>0.0269366722074323</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1415,22 +1415,22 @@
         <v>41152</v>
       </c>
       <c r="B45">
-        <v>0.8402807897409518</v>
+        <v>0.830897808057522</v>
       </c>
       <c r="C45">
-        <v>0.02178859315071334</v>
+        <v>0.0230686018173109</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1.65646702880263e-18</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1.6223811905152e-18</v>
       </c>
       <c r="F45">
-        <v>0.06108677629758904</v>
+        <v>0.0646754245283115</v>
       </c>
       <c r="G45">
-        <v>0.02752762383001627</v>
+        <v>0.0291447818897723</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1438,22 +1438,22 @@
         <v>41180</v>
       </c>
       <c r="B46">
-        <v>0.8433881296734553</v>
+        <v>0.80244792235659</v>
       </c>
       <c r="C46">
-        <v>0.0209477628359476</v>
+        <v>0.0264237575225058</v>
       </c>
       <c r="D46">
-        <v>0.004506531439746982</v>
+        <v>0.00568459247599621</v>
       </c>
       <c r="E46">
-        <v>2.724980785898207e-17</v>
+        <v>4.13701479350841e-17</v>
       </c>
       <c r="F46">
-        <v>0.06143775941074661</v>
+        <v>0.0774983212940128</v>
       </c>
       <c r="G46">
-        <v>0.02213276118220444</v>
+        <v>0.0279185281761965</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1461,22 +1461,22 @@
         <v>41213</v>
       </c>
       <c r="B47">
-        <v>0.840916130060527</v>
+        <v>0.838006157372609</v>
       </c>
       <c r="C47">
-        <v>0.04056145659788703</v>
+        <v>0.0413034092967474</v>
       </c>
       <c r="D47">
-        <v>3.219132949806369e-19</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.01988138982276961</v>
+        <v>0.0202450609736542</v>
       </c>
       <c r="F47">
-        <v>0.03747456384930561</v>
+        <v>0.0381600519597653</v>
       </c>
       <c r="G47">
-        <v>0.02064253492337055</v>
+        <v>0.0210201297117849</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1484,22 +1484,22 @@
         <v>41243</v>
       </c>
       <c r="B48">
-        <v>0.8405855160340334</v>
+        <v>0.816155777221278</v>
       </c>
       <c r="C48">
-        <v>0.05236295087326157</v>
+        <v>0.0603873982461505</v>
       </c>
       <c r="D48">
-        <v>4.6985952294076e-17</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>0.03204085281712509</v>
+        <v>0.0369510037936568</v>
       </c>
       <c r="F48">
-        <v>0.02959794484545933</v>
+        <v>0.0341337336105611</v>
       </c>
       <c r="G48">
-        <v>0.02270636771506025</v>
+        <v>0.0261860435641765</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1507,22 +1507,22 @@
         <v>41274</v>
       </c>
       <c r="B49">
-        <v>0.8393624299072493</v>
+        <v>0.822721962878217</v>
       </c>
       <c r="C49">
-        <v>0.04722225437258737</v>
+        <v>0.0521140137289492</v>
       </c>
       <c r="D49">
-        <v>3.338196243750454e-17</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>0.03432099948343002</v>
+        <v>0.037876316229667</v>
       </c>
       <c r="F49">
-        <v>0.03616442479131329</v>
+        <v>0.0399107018808247</v>
       </c>
       <c r="G49">
-        <v>0.02146494572270994</v>
+        <v>0.0236885026411711</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1530,22 +1530,22 @@
         <v>41305</v>
       </c>
       <c r="B50">
-        <v>0.8154363069189876</v>
+        <v>0.816759340496043</v>
       </c>
       <c r="C50">
-        <v>0.06345980351903238</v>
+        <v>0.0630048957228494</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>7.98809243984745e-17</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3.62650803619824e-17</v>
       </c>
       <c r="F50">
-        <v>0.06165392107415305</v>
+        <v>0.0612119586915263</v>
       </c>
       <c r="G50">
-        <v>0.02972498424391347</v>
+        <v>0.0295119025447903</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1553,22 +1553,22 @@
         <v>41333</v>
       </c>
       <c r="B51">
-        <v>0.8082622436429306</v>
+        <v>0.81995218294956</v>
       </c>
       <c r="C51">
-        <v>0.05013254286702001</v>
+        <v>0.0470760433212577</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>4.61836244160935e-17</v>
       </c>
       <c r="F51">
-        <v>0.07978824787841052</v>
+        <v>0.0749236877361623</v>
       </c>
       <c r="G51">
-        <v>0.03090848280581942</v>
+        <v>0.02902404299651</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1576,22 +1576,22 @@
         <v>41362</v>
       </c>
       <c r="B52">
-        <v>0.8072502177472344</v>
+        <v>0.837364695262846</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0.04847462062075711</v>
+        <v>0.0409011345359568</v>
       </c>
       <c r="E52">
-        <v>0.04900143118564157</v>
+        <v>0.0413456364965862</v>
       </c>
       <c r="F52">
-        <v>0.04615706078743518</v>
+        <v>0.0389456613060231</v>
       </c>
       <c r="G52">
-        <v>0.02455833482946588</v>
+        <v>0.0207214361992943</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1599,22 +1599,22 @@
         <v>41390</v>
       </c>
       <c r="B53">
-        <v>0.806666584626761</v>
+        <v>0.846671753427647</v>
       </c>
       <c r="C53">
-        <v>0.008297399969182032</v>
+        <v>0.00536909915300909</v>
       </c>
       <c r="D53">
-        <v>0.01044020878075309</v>
+        <v>0.0136775832766113</v>
       </c>
       <c r="E53">
-        <v>0.04574349824882482</v>
+        <v>0.0322039118909188</v>
       </c>
       <c r="F53">
-        <v>0.0658340176118095</v>
+        <v>0.0467541931745079</v>
       </c>
       <c r="G53">
-        <v>0.03150914538133479</v>
+        <v>0.0276617295386527</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1622,22 +1622,22 @@
         <v>41425</v>
       </c>
       <c r="B54">
-        <v>0.8015238544841061</v>
+        <v>0.815676887990322</v>
       </c>
       <c r="C54">
-        <v>0.009006549064621415</v>
+        <v>0.00836427765796762</v>
       </c>
       <c r="D54">
-        <v>0.02529717670031568</v>
+        <v>0.0234988212904341</v>
       </c>
       <c r="E54">
-        <v>0.02888292387303679</v>
+        <v>0.0268225644969756</v>
       </c>
       <c r="F54">
-        <v>0.06773661465197324</v>
+        <v>0.0629034122601654</v>
       </c>
       <c r="G54">
-        <v>0.02927316608066266</v>
+        <v>0.0271848793230838</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1645,22 +1645,22 @@
         <v>41453</v>
       </c>
       <c r="B55">
-        <v>0.7952210042300132</v>
+        <v>0.827705353082524</v>
       </c>
       <c r="C55">
-        <v>0.01067132981902076</v>
+        <v>0.00897852319230281</v>
       </c>
       <c r="D55">
-        <v>0.02389748765554754</v>
+        <v>0.0201065996292531</v>
       </c>
       <c r="E55">
-        <v>0.0393620095682865</v>
+        <v>0.0331179640728225</v>
       </c>
       <c r="F55">
-        <v>0.06316536628749088</v>
+        <v>0.05314536592892</v>
       </c>
       <c r="G55">
-        <v>0.02850573631031019</v>
+        <v>0.0239838354509375</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1668,22 +1668,22 @@
         <v>41486</v>
       </c>
       <c r="B56">
-        <v>0.8046381131653627</v>
+        <v>0.834022866646403</v>
       </c>
       <c r="C56">
-        <v>0.01474903599491225</v>
+        <v>0.012530605939555</v>
       </c>
       <c r="D56">
-        <v>0.002657053261596886</v>
+        <v>0.00225740037719135</v>
       </c>
       <c r="E56">
-        <v>0.02278948790289856</v>
+        <v>0.0193616782490508</v>
       </c>
       <c r="F56">
-        <v>0.04494195721973389</v>
+        <v>0.0381821505413349</v>
       </c>
       <c r="G56">
-        <v>0.03501438764804403</v>
+        <v>0.029747806840334</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1691,22 +1691,22 @@
         <v>41516</v>
       </c>
       <c r="B57">
-        <v>0.8020805675112872</v>
+        <v>0.830154746708955</v>
       </c>
       <c r="C57">
-        <v>0.02215252528285485</v>
+        <v>0.0190102669478536</v>
       </c>
       <c r="D57">
-        <v>1.326583497071573e-17</v>
+        <v>3.06117707137704e-18</v>
       </c>
       <c r="E57">
-        <v>0.04306134562015348</v>
+        <v>0.0369532430740137</v>
       </c>
       <c r="F57">
-        <v>0.04737243961955259</v>
+        <v>0.0406528263136709</v>
       </c>
       <c r="G57">
-        <v>0.06318059668329706</v>
+        <v>0.0542186500076536</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1714,22 +1714,22 @@
         <v>41547</v>
       </c>
       <c r="B58">
-        <v>0.402954421476456</v>
+        <v>0.420958735241847</v>
       </c>
       <c r="C58">
-        <v>0.01742474420097413</v>
+        <v>0.0141920311033827</v>
       </c>
       <c r="D58">
-        <v>0.01461920886999752</v>
+        <v>0.0119069896965594</v>
       </c>
       <c r="E58">
-        <v>0.04008892870345913</v>
+        <v>0.0326514563591224</v>
       </c>
       <c r="F58">
-        <v>0.05149200031612192</v>
+        <v>0.0419389838483344</v>
       </c>
       <c r="G58">
-        <v>0.07046627495653539</v>
+        <v>0.0573930685089072</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1737,22 +1737,22 @@
         <v>41578</v>
       </c>
       <c r="B59">
-        <v>0.809513809022616</v>
+        <v>0.857949251933051</v>
       </c>
       <c r="C59">
-        <v>0.0305615207202232</v>
+        <v>0.0227905582144481</v>
       </c>
       <c r="D59">
-        <v>0.03250509859014657</v>
+        <v>0.0242399390327689</v>
       </c>
       <c r="E59">
-        <v>1.327295362557755e-17</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.07939184327017511</v>
+        <v>0.0592046645141735</v>
       </c>
       <c r="G59">
-        <v>0.04802772839683903</v>
+        <v>0.0358155863055585</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1760,22 +1760,22 @@
         <v>41607</v>
       </c>
       <c r="B60">
-        <v>0.8188816630714197</v>
+        <v>0.81721405980056</v>
       </c>
       <c r="C60">
-        <v>0.03260210129445881</v>
+        <v>0.0329022772112185</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>8.72443935671929e-19</v>
       </c>
       <c r="E60">
-        <v>0.05411856173256185</v>
+        <v>0.0546168454301771</v>
       </c>
       <c r="F60">
-        <v>0.05429945374615745</v>
+        <v>0.0547994021337507</v>
       </c>
       <c r="G60">
-        <v>0.04009822015540215</v>
+        <v>0.0404674154242932</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1786,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0.0362966315190513</v>
+        <v>0.0488430099329683</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>5.92245436720207e-18</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1.32069377135891e-17</v>
       </c>
       <c r="F61">
-        <v>0.08377071146304045</v>
+        <v>0.112727093041059</v>
       </c>
       <c r="G61">
-        <v>0.02553395309158984</v>
+        <v>0.0343600793135167</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>0.04865637312525571</v>
+        <v>0.0627298238002556</v>
       </c>
       <c r="D62">
-        <v>9.250572766255571e-19</v>
+        <v>3.43556563406344e-17</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>8.61940727125976e-18</v>
       </c>
       <c r="F62">
-        <v>0.08108533332929463</v>
+        <v>0.104538590904005</v>
       </c>
       <c r="G62">
-        <v>0.02395918248706571</v>
+        <v>0.0308891765694051</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1829,22 +1829,22 @@
         <v>41698</v>
       </c>
       <c r="B63">
-        <v>0.4097372813603718</v>
+        <v>0.412275953491467</v>
       </c>
       <c r="C63">
-        <v>0.01716687579388027</v>
+        <v>0.0166842960839119</v>
       </c>
       <c r="D63">
-        <v>0.001984730127432954</v>
+        <v>0.00192841405188904</v>
       </c>
       <c r="E63">
-        <v>0.02451868526434757</v>
+        <v>0.0238275539213519</v>
       </c>
       <c r="F63">
-        <v>0.06053970835688329</v>
+        <v>0.0588383046879473</v>
       </c>
       <c r="G63">
-        <v>0.05914856194283204</v>
+        <v>0.0574852281880542</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1852,22 +1852,22 @@
         <v>41729</v>
       </c>
       <c r="B64">
-        <v>0.8055646359014519</v>
+        <v>0.812452185397729</v>
       </c>
       <c r="C64">
-        <v>3.934065259970972e-19</v>
+        <v>2.73591641963139e-19</v>
       </c>
       <c r="D64">
-        <v>0.03881016903008522</v>
+        <v>0.0374353841984553</v>
       </c>
       <c r="E64">
-        <v>0.04625149231637429</v>
+        <v>0.0446131094822462</v>
       </c>
       <c r="F64">
-        <v>0.06082760316958561</v>
+        <v>0.0586728874223415</v>
       </c>
       <c r="G64">
-        <v>0.04854609958250296</v>
+        <v>0.0468264334992276</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1875,22 +1875,22 @@
         <v>41759</v>
       </c>
       <c r="B65">
-        <v>0.8059768319430274</v>
+        <v>0.798573903049094</v>
       </c>
       <c r="C65">
-        <v>0.004517721409671156</v>
+        <v>0.00469009499294259</v>
       </c>
       <c r="D65">
-        <v>0.03556974084826077</v>
+        <v>0.0369268985853906</v>
       </c>
       <c r="E65">
-        <v>0.0462567371588067</v>
+        <v>0.0480216568122396</v>
       </c>
       <c r="F65">
-        <v>0.05908039487203564</v>
+        <v>0.0613346002008218</v>
       </c>
       <c r="G65">
-        <v>0.04408085235852715</v>
+        <v>0.0457627513665691</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1898,22 +1898,22 @@
         <v>41789</v>
       </c>
       <c r="B66">
-        <v>0.7983487348613344</v>
+        <v>0.786348943456577</v>
       </c>
       <c r="C66">
-        <v>0.03831886938852377</v>
+        <v>0.0405991348603383</v>
       </c>
       <c r="D66">
-        <v>9.20976799148196e-19</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>0.03314150341988434</v>
+        <v>0.035113677153302</v>
       </c>
       <c r="F66">
-        <v>0.07193494669045873</v>
+        <v>0.0762156254573674</v>
       </c>
       <c r="G66">
-        <v>0.05825594563979875</v>
+        <v>0.061722619072415</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1921,22 +1921,22 @@
         <v>41820</v>
       </c>
       <c r="B67">
-        <v>0.7897189073577714</v>
+        <v>0.758909964226542</v>
       </c>
       <c r="C67">
-        <v>1.307677556217301e-17</v>
+        <v>4.53861428962536e-18</v>
       </c>
       <c r="D67">
-        <v>0.05688094343791272</v>
+        <v>0.0652147489745567</v>
       </c>
       <c r="E67">
-        <v>0.05153470698463413</v>
+        <v>0.0590852185749721</v>
       </c>
       <c r="F67">
-        <v>0.0638546686862798</v>
+        <v>0.0732102167525893</v>
       </c>
       <c r="G67">
-        <v>0.03801077353340195</v>
+        <v>0.0435798514713396</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1944,22 +1944,22 @@
         <v>41851</v>
       </c>
       <c r="B68">
-        <v>0.7799061729481057</v>
+        <v>0.760357110247176</v>
       </c>
       <c r="C68">
-        <v>0.05516026862145961</v>
+        <v>0.060061257761331</v>
       </c>
       <c r="D68">
-        <v>0.002906421022296212</v>
+        <v>0.00316383442536729</v>
       </c>
       <c r="E68">
-        <v>0.0267917666857386</v>
+        <v>0.0291739910908486</v>
       </c>
       <c r="F68">
-        <v>0.07731580232266444</v>
+        <v>0.0841795208287018</v>
       </c>
       <c r="G68">
-        <v>0.05791956839973544</v>
+        <v>0.0630642856465756</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1967,22 +1967,22 @@
         <v>41880</v>
       </c>
       <c r="B69">
-        <v>0.7758499596987253</v>
+        <v>0.758988578783106</v>
       </c>
       <c r="C69">
-        <v>0.05915554005516053</v>
+        <v>0.0636054353871765</v>
       </c>
       <c r="D69">
-        <v>2.131715756136639e-18</v>
+        <v>3.33730981218194e-19</v>
       </c>
       <c r="E69">
-        <v>0.03297601494734027</v>
+        <v>0.0354565913827009</v>
       </c>
       <c r="F69">
-        <v>0.08559871677567303</v>
+        <v>0.0920377625409967</v>
       </c>
       <c r="G69">
-        <v>0.04641976852310093</v>
+        <v>0.0499116319060195</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1990,22 +1990,22 @@
         <v>41912</v>
       </c>
       <c r="B70">
-        <v>0.7688473295123426</v>
+        <v>0.733843187450312</v>
       </c>
       <c r="C70">
-        <v>0.07733982626535843</v>
+        <v>0.0890516274620099</v>
       </c>
       <c r="D70">
-        <v>7.610498836900441e-18</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1.69770813618179e-17</v>
       </c>
       <c r="F70">
-        <v>0.1012308683226359</v>
+        <v>0.116560563633662</v>
       </c>
       <c r="G70">
-        <v>0.0525819758996631</v>
+        <v>0.0605446214540156</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2013,22 +2013,22 @@
         <v>41943</v>
       </c>
       <c r="B71">
-        <v>0.7617752208335558</v>
+        <v>0.766571239787592</v>
       </c>
       <c r="C71">
-        <v>0.06666191720063409</v>
+        <v>0.0653198593133815</v>
       </c>
       <c r="D71">
-        <v>0.0008575687724304849</v>
+        <v>0.000840302559816081</v>
       </c>
       <c r="E71">
-        <v>0.02207960586438677</v>
+        <v>0.0216350911760766</v>
       </c>
       <c r="F71">
-        <v>0.09762669334014158</v>
+        <v>0.0956612408469149</v>
       </c>
       <c r="G71">
-        <v>0.02549949699442566</v>
+        <v>0.0249861331581093</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2036,22 +2036,22 @@
         <v>41971</v>
       </c>
       <c r="B72">
-        <v>0.7478891826554288</v>
+        <v>0.751254281697386</v>
       </c>
       <c r="C72">
-        <v>0.07768385505055189</v>
+        <v>0.0766469538546979</v>
       </c>
       <c r="D72">
-        <v>0.01374758887677034</v>
+        <v>0.0135640907567759</v>
       </c>
       <c r="E72">
-        <v>0.03135163792387756</v>
+        <v>0.0309331664825685</v>
       </c>
       <c r="F72">
-        <v>0.08718506024708823</v>
+        <v>0.0860213398428553</v>
       </c>
       <c r="G72">
-        <v>0.02107133762314161</v>
+        <v>0.0207900836828581</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2059,22 +2059,22 @@
         <v>42004</v>
       </c>
       <c r="B73">
-        <v>0.7302678785118544</v>
+        <v>0.753113679985389</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.08506749350838344</v>
+        <v>0.0778624381364555</v>
       </c>
       <c r="E73">
-        <v>0.00678482198674253</v>
+        <v>0.00621016027902461</v>
       </c>
       <c r="F73">
-        <v>0.1198957065183533</v>
+        <v>0.109740765864932</v>
       </c>
       <c r="G73">
-        <v>0.05798409947466626</v>
+        <v>0.0530729557341989</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2082,22 +2082,22 @@
         <v>42034</v>
       </c>
       <c r="B74">
-        <v>0.7158738957698942</v>
+        <v>0.754490163551347</v>
       </c>
       <c r="C74">
-        <v>2.716896549580456e-17</v>
+        <v>5.00427065237841e-18</v>
       </c>
       <c r="D74">
-        <v>0.08424318523430582</v>
+        <v>0.0727934893690725</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.1336793831540239</v>
+        <v>0.115510695100751</v>
       </c>
       <c r="G74">
-        <v>0.06620353584177606</v>
+        <v>0.0572056519788298</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2105,22 +2105,22 @@
         <v>42062</v>
       </c>
       <c r="B75">
-        <v>0.7070218463309904</v>
+        <v>0.782172126455894</v>
       </c>
       <c r="C75">
-        <v>0.0712312253216552</v>
+        <v>0.0529600798866251</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>3.62530101424841e-19</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.1413001770157936</v>
+        <v>0.105056013799183</v>
       </c>
       <c r="G75">
-        <v>0.08044675133156073</v>
+        <v>0.0598117798582972</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2128,22 +2128,22 @@
         <v>42094</v>
       </c>
       <c r="B76">
-        <v>0.6992229603280508</v>
+        <v>0.786036665412095</v>
       </c>
       <c r="C76">
-        <v>0.04643939415576714</v>
+        <v>0.0330355260069318</v>
       </c>
       <c r="D76">
-        <v>0.0263144892138007</v>
+        <v>0.0187193006724889</v>
       </c>
       <c r="E76">
-        <v>0.07113498336226144</v>
+        <v>0.0506031900997789</v>
       </c>
       <c r="F76">
-        <v>0.09698029267414063</v>
+        <v>0.068988734096216</v>
       </c>
       <c r="G76">
-        <v>0.05990788026597933</v>
+        <v>0.0426165837124893</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2151,22 +2151,22 @@
         <v>42124</v>
       </c>
       <c r="B77">
-        <v>0.7004544235551371</v>
+        <v>0.785276506477929</v>
       </c>
       <c r="C77">
-        <v>0.04472236193621984</v>
+        <v>0.0320583659180317</v>
       </c>
       <c r="D77">
-        <v>0.01182027421484441</v>
+        <v>0.00847313624215473</v>
       </c>
       <c r="E77">
-        <v>0.07218035698220969</v>
+        <v>0.0517411021756597</v>
       </c>
       <c r="F77">
-        <v>0.1025614586692588</v>
+        <v>0.0735192130653694</v>
       </c>
       <c r="G77">
-        <v>0.06826112464233015</v>
+        <v>0.0489316761208555</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2174,22 +2174,22 @@
         <v>42153</v>
       </c>
       <c r="B78">
-        <v>0.6824847769584356</v>
+        <v>0.77811862953346</v>
       </c>
       <c r="C78">
-        <v>0.0002064608227117927</v>
+        <v>0.00014427541011794</v>
       </c>
       <c r="D78">
-        <v>0.04755620390827459</v>
+        <v>0.0332325353979369</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>3.34340844940217e-17</v>
       </c>
       <c r="F78">
-        <v>0.1642246101462726</v>
+        <v>0.114761052688842</v>
       </c>
       <c r="G78">
-        <v>0.1055279481643055</v>
+        <v>0.0737435069696437</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2197,22 +2197,22 @@
         <v>42185</v>
       </c>
       <c r="B79">
-        <v>0.6764762499469107</v>
+        <v>0.781210282905259</v>
       </c>
       <c r="C79">
         <v>0</v>
       </c>
       <c r="D79">
-        <v>0.02774365031634677</v>
+        <v>0.0187622250707859</v>
       </c>
       <c r="E79">
-        <v>0.1142559031825499</v>
+        <v>0.0772679495986634</v>
       </c>
       <c r="F79">
-        <v>0.1090857747644575</v>
+        <v>0.0737715412058842</v>
       </c>
       <c r="G79">
-        <v>0.07243842178973514</v>
+        <v>0.0489880012194074</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2220,22 +2220,22 @@
         <v>42216</v>
       </c>
       <c r="B80">
-        <v>0.6797203056917283</v>
+        <v>0.776180140882738</v>
       </c>
       <c r="C80">
-        <v>0.02966300456253439</v>
+        <v>0.0207292862083042</v>
       </c>
       <c r="D80">
-        <v>6.208877023954758e-19</v>
+        <v>6.21722183284656e-19</v>
       </c>
       <c r="E80">
-        <v>0.1113255362735401</v>
+        <v>0.0777972075019008</v>
       </c>
       <c r="F80">
-        <v>0.1022892254782312</v>
+        <v>0.0714823966033287</v>
       </c>
       <c r="G80">
-        <v>0.07700192799396609</v>
+        <v>0.0538109688037279</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2243,22 +2243,22 @@
         <v>42247</v>
       </c>
       <c r="B81">
-        <v>0.681434596204092</v>
+        <v>0.776608928828212</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>0.01549518347926663</v>
+        <v>0.010865855358144</v>
       </c>
       <c r="E81">
-        <v>0.05202144770624659</v>
+        <v>0.0364795639172864</v>
       </c>
       <c r="F81">
-        <v>0.1027505491303804</v>
+        <v>0.0720528805424233</v>
       </c>
       <c r="G81">
-        <v>0.0403907961472506</v>
+        <v>0.0283236760392521</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2266,22 +2266,22 @@
         <v>42277</v>
       </c>
       <c r="B82">
-        <v>0.6836421387009628</v>
+        <v>0.803125358214843</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>0.02400860132323306</v>
+        <v>0.0149409430194151</v>
       </c>
       <c r="E82">
-        <v>0.01813142939435843</v>
+        <v>0.0112834836413561</v>
       </c>
       <c r="F82">
-        <v>0.1248030847849926</v>
+        <v>0.0776669882369128</v>
       </c>
       <c r="G82">
-        <v>0.100065912432935</v>
+        <v>0.0622726447359034</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2289,22 +2289,22 @@
         <v>42307</v>
       </c>
       <c r="B83">
-        <v>0.6839128688978283</v>
+        <v>0.497522937612014</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83">
-        <v>0.1020951764019535</v>
+        <v>0.129463113994758</v>
       </c>
       <c r="E83">
-        <v>0.01358810199688856</v>
+        <v>0.0334766637467262</v>
       </c>
       <c r="F83">
-        <v>1.032635598952086e-17</v>
+        <v>0.0192901657940496</v>
       </c>
       <c r="G83">
-        <v>0.08472057430448748</v>
+        <v>0.138017175316918</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2312,22 +2312,22 @@
         <v>42338</v>
       </c>
       <c r="B84">
-        <v>0.6658980574113935</v>
+        <v>0.755626594487176</v>
       </c>
       <c r="C84">
-        <v>0.02671827296148276</v>
+        <v>0.0195391660473862</v>
       </c>
       <c r="D84">
-        <v>4.508157655277752e-18</v>
+        <v>1.68728963093057e-18</v>
       </c>
       <c r="E84">
-        <v>0.03484470876486878</v>
+        <v>0.0254653133675945</v>
       </c>
       <c r="F84">
-        <v>0.0582035423439822</v>
+        <v>0.0425946257956826</v>
       </c>
       <c r="G84">
-        <v>0.09456889444793905</v>
+        <v>0.0691751950914972</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,22 +2335,22 @@
         <v>42369</v>
       </c>
       <c r="B85">
-        <v>0.6651225739452951</v>
+        <v>0.749600490829467</v>
       </c>
       <c r="C85">
-        <v>0.03731980579332449</v>
+        <v>0.0279053179994716</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>6.14395348290907e-18</v>
       </c>
       <c r="E85">
-        <v>5.521118834161694e-18</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0.1628505652671708</v>
+        <v>0.121769036682961</v>
       </c>
       <c r="G85">
-        <v>0.09738724920088514</v>
+        <v>0.0728198364886278</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2358,22 +2358,22 @@
         <v>42398</v>
       </c>
       <c r="B86">
-        <v>0.6426361515842738</v>
+        <v>0.784821383985252</v>
       </c>
       <c r="C86">
-        <v>0.04797731354670016</v>
+        <v>0.0292590412407213</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>2.52415818281782e-19</v>
       </c>
       <c r="E86">
-        <v>0.04571786214854009</v>
+        <v>0.0276661646220777</v>
       </c>
       <c r="F86">
-        <v>0.09933145424477906</v>
+        <v>0.0593539004324235</v>
       </c>
       <c r="G86">
-        <v>0.1186193563271668</v>
+        <v>0.0712333450974475</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2381,7 +2381,7 @@
         <v>42429</v>
       </c>
       <c r="B87">
-        <v>0.6470203342813007</v>
+        <v>0.768305461084288</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <v>0.05378567525526198</v>
+        <v>0.0353047168741587</v>
       </c>
       <c r="F87">
-        <v>0.1005733531447512</v>
+        <v>0.0660159757505295</v>
       </c>
       <c r="G87">
-        <v>0.08623087638456732</v>
+        <v>0.0566016257509224</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2404,7 +2404,7 @@
         <v>42460</v>
       </c>
       <c r="B88">
-        <v>0.6415584257702951</v>
+        <v>0.792599466593367</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2413,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <v>0.04400886686538564</v>
+        <v>0.0254642963909435</v>
       </c>
       <c r="F88">
-        <v>0.09349910902740775</v>
+        <v>0.0541002110570773</v>
       </c>
       <c r="G88">
-        <v>0.1097602529347071</v>
+        <v>0.0635091929543398</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2427,22 +2427,22 @@
         <v>42489</v>
       </c>
       <c r="B89">
-        <v>0.6350837203238739</v>
+        <v>0.776329184056955</v>
       </c>
       <c r="C89">
-        <v>0.04085756701084768</v>
+        <v>0.0250431286964543</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89">
-        <v>0.01169184964624252</v>
+        <v>0.00716637169952343</v>
       </c>
       <c r="F89">
-        <v>0.1571115553378638</v>
+        <v>0.0962995390271869</v>
       </c>
       <c r="G89">
-        <v>0.1027058910240819</v>
+        <v>0.0629522761239031</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2450,22 +2450,22 @@
         <v>42521</v>
       </c>
       <c r="B90">
-        <v>0.6375799933499768</v>
+        <v>0.801422860655033</v>
       </c>
       <c r="C90">
-        <v>0.0222177557388557</v>
+        <v>0.0121735508585777</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>8.36445035413621e-21</v>
       </c>
       <c r="E90">
-        <v>0.05025236071322563</v>
+        <v>0.0275342693522444</v>
       </c>
       <c r="F90">
-        <v>0.1377192193495743</v>
+        <v>0.0754591031708075</v>
       </c>
       <c r="G90">
-        <v>0.0797605543962862</v>
+        <v>0.0437023957525156</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2473,22 +2473,22 @@
         <v>42551</v>
       </c>
       <c r="B91">
-        <v>0.6379005113101848</v>
+        <v>0.78804200584813</v>
       </c>
       <c r="C91">
-        <v>0.04881969651306047</v>
+        <v>0.0285770212679007</v>
       </c>
       <c r="D91">
-        <v>0.006579487612028759</v>
+        <v>0.00385135876119481</v>
       </c>
       <c r="E91">
-        <v>0.03826496026876409</v>
+        <v>0.0223987180619146</v>
       </c>
       <c r="F91">
-        <v>0.1131178509752842</v>
+        <v>0.0662144893942071</v>
       </c>
       <c r="G91">
-        <v>0.1104730454398848</v>
+        <v>0.0646663298435434</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2496,22 +2496,22 @@
         <v>42580</v>
       </c>
       <c r="B92">
-        <v>0.6281461760887161</v>
+        <v>0.775950283113526</v>
       </c>
       <c r="C92">
-        <v>0.09813855922629829</v>
+        <v>0.0591305371165132</v>
       </c>
       <c r="D92">
-        <v>0</v>
+        <v>1.97909248125967e-18</v>
       </c>
       <c r="E92">
-        <v>0.001227691296356598</v>
+        <v>0.000739710288305446</v>
       </c>
       <c r="F92">
-        <v>0.177212901175363</v>
+        <v>0.10677448377228</v>
       </c>
       <c r="G92">
-        <v>0.09404698091690936</v>
+        <v>0.0566652754210699</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2519,22 +2519,22 @@
         <v>42613</v>
       </c>
       <c r="B93">
-        <v>0.6170048470391331</v>
+        <v>0.761368887194061</v>
       </c>
       <c r="C93">
-        <v>0.09864610350339328</v>
+        <v>0.0614629957867335</v>
       </c>
       <c r="D93">
         <v>0</v>
       </c>
       <c r="E93">
-        <v>2.003300633535901e-17</v>
+        <v>7.61652026171067e-18</v>
       </c>
       <c r="F93">
-        <v>0.184181118491428</v>
+        <v>0.114756922552939</v>
       </c>
       <c r="G93">
-        <v>0.1001679309660456</v>
+        <v>0.0624111944662666</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2542,22 +2542,22 @@
         <v>42643</v>
       </c>
       <c r="B94">
-        <v>0.6121135268415685</v>
+        <v>0.715670308729497</v>
       </c>
       <c r="C94">
-        <v>0.0963314128288999</v>
+        <v>0.0706131376793572</v>
       </c>
       <c r="D94">
         <v>0</v>
       </c>
       <c r="E94">
-        <v>0.04215801432139663</v>
+        <v>0.0309027919864686</v>
       </c>
       <c r="F94">
-        <v>0.1266334089745897</v>
+        <v>0.0928251972532902</v>
       </c>
       <c r="G94">
-        <v>0.08060562271214861</v>
+        <v>0.0590857723649182</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2565,22 +2565,22 @@
         <v>42674</v>
       </c>
       <c r="B95">
-        <v>0.6119564150049652</v>
+        <v>0.708478006262373</v>
       </c>
       <c r="C95">
-        <v>0.08447363854251859</v>
+        <v>0.0634617460292187</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1.32924880412617e-17</v>
       </c>
       <c r="E95">
-        <v>0.02343707412214789</v>
+        <v>0.0176073583542031</v>
       </c>
       <c r="F95">
-        <v>0.1748516470543146</v>
+        <v>0.131359215861327</v>
       </c>
       <c r="G95">
-        <v>0.1052812252760537</v>
+        <v>0.0790936734928781</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2588,22 +2588,22 @@
         <v>42704</v>
       </c>
       <c r="B96">
-        <v>0.6143674974651656</v>
+        <v>0.732323408967898</v>
       </c>
       <c r="C96">
-        <v>0.06901484566009594</v>
+        <v>0.0479048278688669</v>
       </c>
       <c r="D96">
-        <v>9.557322064052884e-18</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>0.09110057096685222</v>
+        <v>0.0632350475202006</v>
       </c>
       <c r="F96">
-        <v>0.1284208343173307</v>
+        <v>0.0891399236383796</v>
       </c>
       <c r="G96">
-        <v>0.09709625159055557</v>
+        <v>0.0673967920046545</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2611,22 +2611,22 @@
         <v>42734</v>
       </c>
       <c r="B97">
-        <v>0.6191961698739459</v>
+        <v>0.727683024091645</v>
       </c>
       <c r="C97">
-        <v>0.053310700351555</v>
+        <v>0.0381230636772523</v>
       </c>
       <c r="D97">
         <v>0</v>
       </c>
       <c r="E97">
-        <v>0.1214685059420939</v>
+        <v>0.086863455720111</v>
       </c>
       <c r="F97">
-        <v>0.09802589456070393</v>
+        <v>0.0700993861173963</v>
       </c>
       <c r="G97">
-        <v>0.1079987292717013</v>
+        <v>0.0772310703935958</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2637,19 +2637,19 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>0.05653732386592773</v>
+        <v>0.0464147044689857</v>
       </c>
       <c r="D98">
-        <v>0.009296849984546019</v>
+        <v>0.00763231306906445</v>
       </c>
       <c r="E98">
-        <v>0.1253881312668376</v>
+        <v>0.102938247346022</v>
       </c>
       <c r="F98">
-        <v>0.05279806136983175</v>
+        <v>0.0433449332541832</v>
       </c>
       <c r="G98">
-        <v>0.1355184045626597</v>
+        <v>0.111254765677712</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2660,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>5.363152802470388e-18</v>
+        <v>8.16624464447871e-18</v>
       </c>
       <c r="D99">
-        <v>0.06774585047059352</v>
+        <v>0.06016791469151</v>
       </c>
       <c r="E99">
-        <v>0.1220655470673519</v>
+        <v>0.103122839956888</v>
       </c>
       <c r="F99">
-        <v>0.08277922873812069</v>
+        <v>0.0716728897501331</v>
       </c>
       <c r="G99">
-        <v>0.1103515982784246</v>
+        <v>0.0928709376607594</v>
       </c>
     </row>
   </sheetData>
